--- a/test/files/test_banco2.xlsx
+++ b/test/files/test_banco2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\fernando\Projetos\vcnfacul\api_vcnafacul\test\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42850A77-B2C5-4CB1-B16B-8AFE6188F8A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516F7E5-B902-4C38-8E8B-1D43183E0BA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{803C8242-199F-4329-AB23-992FF438D71B}"/>
   </bookViews>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE4CD9F-A82A-4403-962C-EBFE010568E0}">
-  <dimension ref="A1:Z590"/>
+  <dimension ref="A1:Z576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q10"/>
+      <selection activeCell="A4" sqref="A4:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,16 +686,16 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1W94bxs_7Z2-9dY7FBHCUS86gYt4Ot4GN")</f>
-        <v>https://drive.google.com/open?id=1W94bxs_7Z2-9dY7FBHCUS86gYt4Ot4GN</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1uu785Ijmm5i5hF1K63duqKTKxGcynaNl")</f>
+        <v>https://drive.google.com/open?id=1uu785Ijmm5i5hF1K63duqKTKxGcynaNl</v>
       </c>
       <c r="B4" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
         <v>Enem</v>
       </c>
       <c r="C4" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018)</f>
-        <v>2018</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2016)</f>
+        <v>2016</v>
       </c>
       <c r="D4" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ciências Humanas")</f>
@@ -709,49 +709,54 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sociologia")</f>
         <v>Sociologia</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Geografia Geral")</f>
+        <v>Geografia Geral</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Azul")</f>
         <v>Azul</v>
       </c>
       <c r="J4" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),64)</f>
-        <v>64</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16)</f>
+        <v>16</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"E")</f>
-        <v>E</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D")</f>
+        <v>D</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Outra importante manifestação das crenças e tradições africanas na Colônia eram os objetos conhecidos como “bolsas de mandinga”. A insegurança tanto física como espiritual gerava uma necessidade generalizada de proteção: das catástrofes da natureza, das d"&amp;"oenças, da má sorte, da violência dos núcleos urbanos, dos roubos, das brigas, dos malefícios de feiticeiros etc. Também para trazer sorte, dinheiro e até atrair mulheres, o costume era corrente nas primeiras décadas do século XVIII, envolvendo não apenas"&amp;" escravos, mas também homens brancos.CALAINHO, D. B. Feitiços e feiticeiros. In: FIGUEIREDO, L. História do Brasil para ocupados.Rio de Janeiro: Casa da Palavra, 2013 (adaptado).
-A prática histórico-cultural de matriz africana descrita no texto representa"&amp;"va um(a)
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Diante dos fatos e da análise apresentados, a política econômica e a demanda popular correlacionada encontram-se, respectivamente, em 
 ")</f>
-        <v xml:space="preserve">Outra importante manifestação das crenças e tradições africanas na Colônia eram os objetos conhecidos como “bolsas de mandinga”. A insegurança tanto física como espiritual gerava uma necessidade generalizada de proteção: das catástrofes da natureza, das doenças, da má sorte, da violência dos núcleos urbanos, dos roubos, das brigas, dos malefícios de feiticeiros etc. Também para trazer sorte, dinheiro e até atrair mulheres, o costume era corrente nas primeiras décadas do século XVIII, envolvendo não apenas escravos, mas também homens brancos.CALAINHO, D. B. Feitiços e feiticeiros. In: FIGUEIREDO, L. História do Brasil para ocupados.Rio de Janeiro: Casa da Palavra, 2013 (adaptado).
-A prática histórico-cultural de matriz africana descrita no texto representava um(a)
+        <v xml:space="preserve"> Diante dos fatos e da análise apresentados, a política econômica e a demanda popular correlacionada encontram-se, respectivamente, em 
 </v>
       </c>
       <c r="M4" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expressão do valor das festividades da população pobre.
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," controle da dívida interna e implementação das regras patronais. ")</f>
+        <v xml:space="preserve"> controle da dívida interna e implementação das regras patronais. </v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"afrouxamento da economia de mercado e superação da lógica individualista. ")</f>
+        <v xml:space="preserve">afrouxamento da economia de mercado e superação da lógica individualista. </v>
+      </c>
+      <c r="O4" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"aplicação de plano desenvolvimentista e afirmação das conquistas neoliberais. 
 ")</f>
-        <v xml:space="preserve">expressão do valor das festividades da população pobre.
+        <v xml:space="preserve">aplicação de plano desenvolvimentista e afirmação das conquistas neoliberais. 
 </v>
       </c>
-      <c r="N4" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ferramenta para submeter os cativos ao trabalho forçado.")</f>
-        <v>ferramenta para submeter os cativos ao trabalho forçado.</v>
-      </c>
-      <c r="O4" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"estratégia de subversão do poder da monarquia portuguesa.")</f>
-        <v>estratégia de subversão do poder da monarquia portuguesa.</v>
-      </c>
       <c r="P4" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elemento de conversão dos escravos ao catolicismo romano.")</f>
-        <v>elemento de conversão dos escravos ao catolicismo romano.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"defesa dos interesses corporativos do capital e manutenção de direitos sociais. 
+")</f>
+        <v xml:space="preserve">defesa dos interesses corporativos do capital e manutenção de direitos sociais. 
+</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"instrumento para minimizar o sentimento de desamparo social.")</f>
-        <v>instrumento para minimizar o sentimento de desamparo social.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mudança na estrutura do sistema produtivo e democratização do acesso ao trabalho.
+")</f>
+        <v xml:space="preserve">mudança na estrutura do sistema produtivo e democratização do acesso ao trabalho.
+</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -765,16 +770,16 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1yC594PHRYdASnExHXFvIV00MkjuuQbOk")</f>
-        <v>https://drive.google.com/open?id=1yC594PHRYdASnExHXFvIV00MkjuuQbOk</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1yRDd5R0-wP2OWRxoEcHykhLFLcFyaVgk")</f>
+        <v>https://drive.google.com/open?id=1yRDd5R0-wP2OWRxoEcHykhLFLcFyaVgk</v>
       </c>
       <c r="B5" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
         <v>Enem</v>
       </c>
       <c r="C5" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018)</f>
-        <v>2018</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2016)</f>
+        <v>2016</v>
       </c>
       <c r="D5" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ciências Humanas")</f>
@@ -788,47 +793,56 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sociologia")</f>
         <v>Sociologia</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Filosofia")</f>
+        <v>Filosofia</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Azul")</f>
         <v>Azul</v>
       </c>
       <c r="J5" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70)</f>
-        <v>70</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),31)</f>
+        <v>31</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A primeira fase da dominação da economia sobre a vida social acarretou, no modo de definir toda realização humana, uma evidente degradação do ser para o ter. A fase atual, em que a vida social está totalmente tomada pelos resultados da economia, leva a um"&amp;" deslizamento generalizado do ter para o parecer, do qual todo ter efetivo deve extrair seu prestígio imediato e sua função última. Ao mesmo tempo, toda realidade individual tornou-se social, diretamente dependente da força social, moldada por ela.DEBORD,"&amp;" G. A sociedade do espetáculo. Rio de Janeiro: Contraponto, 2015
-Uma manifestação contemporânea do fenômeno descrito no texto é o(a)
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Thomas Hobbes e John Locke, importantes teóricos contratualistas, discutiram aspectos ligados à natureza humana e ao Estado. Thomas Hobbes, diferentemente de John Locke, entende o estado de natureza como um(a) 
 ")</f>
-        <v xml:space="preserve">A primeira fase da dominação da economia sobre a vida social acarretou, no modo de definir toda realização humana, uma evidente degradação do ser para o ter. A fase atual, em que a vida social está totalmente tomada pelos resultados da economia, leva a um deslizamento generalizado do ter para o parecer, do qual todo ter efetivo deve extrair seu prestígio imediato e sua função última. Ao mesmo tempo, toda realidade individual tornou-se social, diretamente dependente da força social, moldada por ela.DEBORD, G. A sociedade do espetáculo. Rio de Janeiro: Contraponto, 2015
-Uma manifestação contemporânea do fenômeno descrito no texto é o(a)
+        <v xml:space="preserve"> Thomas Hobbes e John Locke, importantes teóricos contratualistas, discutiram aspectos ligados à natureza humana e ao Estado. Thomas Hobbes, diferentemente de John Locke, entende o estado de natureza como um(a) 
 </v>
       </c>
       <c r="M5" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"valorização dos conhecimentos acumulados.")</f>
-        <v>valorização dos conhecimentos acumulados.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"condição de guerra de todos contra todos, miséria universal, insegurança e medo da morte violenta.
+")</f>
+        <v xml:space="preserve">condição de guerra de todos contra todos, miséria universal, insegurança e medo da morte violenta.
+</v>
       </c>
       <c r="N5" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"exposição nos meios de comunicação.")</f>
-        <v>exposição nos meios de comunicação.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"organização pré-social e pré-política em que o homem nasce com os direitos naturais: vida, liberdade, igualdade e propriedade. 
+")</f>
+        <v xml:space="preserve">organização pré-social e pré-política em que o homem nasce com os direitos naturais: vida, liberdade, igualdade e propriedade. 
+</v>
       </c>
       <c r="O5" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"aprofundamento da vivência espiritual.")</f>
-        <v>aprofundamento da vivência espiritual.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"capricho típico da menoridade, que deve ser eliminado pela exigência moral, para que o homem possa constituir o Estado civil. ")</f>
+        <v xml:space="preserve">capricho típico da menoridade, que deve ser eliminado pela exigência moral, para que o homem possa constituir o Estado civil. </v>
       </c>
       <c r="P5" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fortalecimento das relações interpessoais.")</f>
-        <v>fortalecimento das relações interpessoais.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"situação em que os homens nascem como detentores de livre-arbítrio, mas são feridos em sua livre decisão pelo pecado original. 
+")</f>
+        <v xml:space="preserve">situação em que os homens nascem como detentores de livre-arbítrio, mas são feridos em sua livre decisão pelo pecado original. 
+</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"reconhecimento na esfera artística.")</f>
-        <v>reconhecimento na esfera artística.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"estado de felicidade, saúde e liberdade que é destruído pela civilização, que perturba as relações sociais e violenta a humanidade.
+")</f>
+        <v xml:space="preserve">estado de felicidade, saúde e liberdade que é destruído pela civilização, que perturba as relações sociais e violenta a humanidade.
+</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -842,16 +856,16 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1_OChKYB3zALFaKVcWoIrvrI-vTqRqpXn")</f>
-        <v>https://drive.google.com/open?id=1_OChKYB3zALFaKVcWoIrvrI-vTqRqpXn</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=15E22_LrVcx56GbhEOBU46KAi6mfeBWTy")</f>
+        <v>https://drive.google.com/open?id=15E22_LrVcx56GbhEOBU46KAi6mfeBWTy</v>
       </c>
       <c r="B6" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
         <v>Enem</v>
       </c>
       <c r="C6" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018)</f>
-        <v>2018</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2016)</f>
+        <v>2016</v>
       </c>
       <c r="D6" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ciências Humanas")</f>
@@ -872,40 +886,46 @@
         <v>Azul</v>
       </c>
       <c r="J6" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78)</f>
-        <v>78</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32)</f>
+        <v>32</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"E")</f>
-        <v>E</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"O marco inicial das discussões parlamentares em torno do direito do voto feminino são os debates que antecederam a Constituição de 1824, que não trazia qualquer impedimento ao exercício dos direitos políticos por mulheres, mas, por outro lado, também não "&amp;"era explícita quanto à possibilidade desse exercício. Foi somente em 1932, dois anos antes de estabelecido o voto aos 18 anos, que as mulheres obtiveram o direito de votar, o que veio a se concretizar no ano seguinte. Isso ocorreu a partir da aprovação do"&amp;" Código Eleitoral de 1932. Disponível em: http://tse.jusbrasil.com.br. Acesso em: 14 maio 2018.
-Um dos fatores que contribuíram para a efetivação da medida mencionada no texto foi a
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"O Movimento Negro Unificado (MNU) distingue-se do Teatro Experimental do Negro (TEN) por sua crítica ao discurso nacional hegemônico. Isto é, enquanto o TEN defende a plena integração simbólica dos negros na identidade nacional “híbrida”, o MNU condena qu"&amp;"alquer tipo de assimilação, fazendo do combate à ideologia da democracia racial uma das suas principais bandeiras de luta, visto que, aos olhos desse movimento, a igualdade formal assegurada pela lei entre negros e brancos e a difusão do mito de que a soc"&amp;"iedade brasileira não é racista teriam servido para sustentar, ideologicamente, a opressão racial. COSTA, S. Dois Atlânticos: teoria social, antirracismo, cosmopolitismo. Belo Horizonte: UFMG, 2006 (adaptado). No texto, são comparadas duas organizações do"&amp;" movimento negro brasileiro, criadas em diferentes contextos históricos: o TEN, em 1944, e o MNU, em 1978. Ao assumir uma postura divergente da do TEN, o MNU pretendia 
 ")</f>
-        <v xml:space="preserve">O marco inicial das discussões parlamentares em torno do direito do voto feminino são os debates que antecederam a Constituição de 1824, que não trazia qualquer impedimento ao exercício dos direitos políticos por mulheres, mas, por outro lado, também não era explícita quanto à possibilidade desse exercício. Foi somente em 1932, dois anos antes de estabelecido o voto aos 18 anos, que as mulheres obtiveram o direito de votar, o que veio a se concretizar no ano seguinte. Isso ocorreu a partir da aprovação do Código Eleitoral de 1932. Disponível em: http://tse.jusbrasil.com.br. Acesso em: 14 maio 2018.
-Um dos fatores que contribuíram para a efetivação da medida mencionada no texto foi a
+        <v xml:space="preserve">O Movimento Negro Unificado (MNU) distingue-se do Teatro Experimental do Negro (TEN) por sua crítica ao discurso nacional hegemônico. Isto é, enquanto o TEN defende a plena integração simbólica dos negros na identidade nacional “híbrida”, o MNU condena qualquer tipo de assimilação, fazendo do combate à ideologia da democracia racial uma das suas principais bandeiras de luta, visto que, aos olhos desse movimento, a igualdade formal assegurada pela lei entre negros e brancos e a difusão do mito de que a sociedade brasileira não é racista teriam servido para sustentar, ideologicamente, a opressão racial. COSTA, S. Dois Atlânticos: teoria social, antirracismo, cosmopolitismo. Belo Horizonte: UFMG, 2006 (adaptado). No texto, são comparadas duas organizações do movimento negro brasileiro, criadas em diferentes contextos históricos: o TEN, em 1944, e o MNU, em 1978. Ao assumir uma postura divergente da do TEN, o MNU pretendia 
 </v>
       </c>
       <c r="M6" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"superação da cultura patriarcal.")</f>
-        <v>superação da cultura patriarcal.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," pressionar o governo brasileiro a decretar a igualdade racial. ")</f>
+        <v xml:space="preserve"> pressionar o governo brasileiro a decretar a igualdade racial. </v>
       </c>
       <c r="N6" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"influência de igrejas protestantes.")</f>
-        <v>influência de igrejas protestantes.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," denunciar a permanência do racismo nas relações sociais. 
+")</f>
+        <v xml:space="preserve"> denunciar a permanência do racismo nas relações sociais. 
+</v>
       </c>
       <c r="O6" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pressão do governo revolucionário.")</f>
-        <v>pressão do governo revolucionário.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"contestar a necessidade da igualdade entre negros e brancos. 
+")</f>
+        <v xml:space="preserve">contestar a necessidade da igualdade entre negros e brancos. 
+</v>
       </c>
       <c r="P6" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fragilidade das oligarquias regionais.")</f>
-        <v>fragilidade das oligarquias regionais.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"defender a assimilação do negro por meios não democráticos. 
+")</f>
+        <v xml:space="preserve">defender a assimilação do negro por meios não democráticos. 
+</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"campanha de extensão da cidadania.")</f>
-        <v>campanha de extensão da cidadania.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," divulgar a ideia da miscigenação como marca da nacionalidade.
+")</f>
+        <v xml:space="preserve"> divulgar a ideia da miscigenação como marca da nacionalidade.
+</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -919,16 +939,16 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1uzDafALIDiDvi4mGpEydY-hD1lvCAHFf")</f>
-        <v>https://drive.google.com/open?id=1uzDafALIDiDvi4mGpEydY-hD1lvCAHFf</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1UuFIWlbjDb-HalIeajSh0TStzEH7Khtr")</f>
+        <v>https://drive.google.com/open?id=1UuFIWlbjDb-HalIeajSh0TStzEH7Khtr</v>
       </c>
       <c r="B7" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
         <v>Enem</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018)</f>
-        <v>2018</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2016)</f>
+        <v>2016</v>
       </c>
       <c r="D7" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ciências Humanas")</f>
@@ -949,40 +969,50 @@
         <v>Azul</v>
       </c>
       <c r="J7" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),80)</f>
-        <v>80</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34)</f>
+        <v>34</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Em algumas línguas de Moçambique não existe a palavra “pobre”. O indivíduo é pobre quando não tem parentes. A pobreza é a solidão, a ruptura das relações familiares que, na sociedade rural, servem de apoio à sobrevivência. Os consultores internacionais, e"&amp;"specialistas em elaborar relatórios sobre a miséria, talvez não tenham em conta o impacto dramático da destruição dos laços familiares e das relações de entreajuda. Nações inteiras estão tornando-se “órfãs”, e a mendicidade parece ser a única via de uma a"&amp;"gonizante sobrevivência.COUTO, M. E se Obama fosse africano? &amp; outras intervenções.Portugal: Caminho, 2009 (adaptado).
-Em uma leitura que extrapola a esfera econômica, o autor associa o acirramento da pobreza à
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"As convicções religiosas dos escravos eram entretanto colocadas a duras provas quando de sua chegada ao Novo Mundo, onde eram batizados obrigatoriamente “para a salvação de sua alma” e deviam curvar-se às doutrinas religiosas de seus mestres. Iemanjá, mãe"&amp;" de numerosos outros orixás, foi sincretizada com Nossa Senhora da Conceição, e Nanã Buruku, a mais idosa das divindades das águas, foi comparada a Sant’Ana, mãe da Virgem Maria.
+O sincretismo religioso no Brasil colônia foi uma estratégia utilizada pelos"&amp;" negros escravizados para 
 ")</f>
-        <v xml:space="preserve">Em algumas línguas de Moçambique não existe a palavra “pobre”. O indivíduo é pobre quando não tem parentes. A pobreza é a solidão, a ruptura das relações familiares que, na sociedade rural, servem de apoio à sobrevivência. Os consultores internacionais, especialistas em elaborar relatórios sobre a miséria, talvez não tenham em conta o impacto dramático da destruição dos laços familiares e das relações de entreajuda. Nações inteiras estão tornando-se “órfãs”, e a mendicidade parece ser a única via de uma agonizante sobrevivência.COUTO, M. E se Obama fosse africano? &amp; outras intervenções.Portugal: Caminho, 2009 (adaptado).
-Em uma leitura que extrapola a esfera econômica, o autor associa o acirramento da pobreza à
+        <v xml:space="preserve">As convicções religiosas dos escravos eram entretanto colocadas a duras provas quando de sua chegada ao Novo Mundo, onde eram batizados obrigatoriamente “para a salvação de sua alma” e deviam curvar-se às doutrinas religiosas de seus mestres. Iemanjá, mãe de numerosos outros orixás, foi sincretizada com Nossa Senhora da Conceição, e Nanã Buruku, a mais idosa das divindades das águas, foi comparada a Sant’Ana, mãe da Virgem Maria.
+O sincretismo religioso no Brasil colônia foi uma estratégia utilizada pelos negros escravizados para 
 </v>
       </c>
       <c r="M7" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"afirmação das origens ancestrais.")</f>
-        <v>afirmação das origens ancestrais.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"compreender o papel do sagrado para a cultura europeia. 
+")</f>
+        <v xml:space="preserve">compreender o papel do sagrado para a cultura europeia. 
+</v>
       </c>
       <c r="N7" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fragilização das redes de sociabilidade.")</f>
-        <v>fragilização das redes de sociabilidade.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"garantir a aceitação pelas comunidades dos convertidos. 
+")</f>
+        <v xml:space="preserve">garantir a aceitação pelas comunidades dos convertidos. 
+</v>
       </c>
       <c r="O7" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"padronização das políticas educacionais.")</f>
-        <v>padronização das políticas educacionais.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"preservar as crenças e a sua relação com o sagrado. 
+")</f>
+        <v xml:space="preserve">preservar as crenças e a sua relação com o sagrado. 
+</v>
       </c>
       <c r="P7" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," fragmentação das propriedades agrícolas.")</f>
-        <v xml:space="preserve"> fragmentação das propriedades agrícolas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"integrar as distintas culturas no Novo Mundo. 
+")</f>
+        <v xml:space="preserve">integrar as distintas culturas no Novo Mundo. 
+</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"globalização das tecnologias de comunicação.")</f>
-        <v>globalização das tecnologias de comunicação.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"possibilitar a adoração de santos católicos.
+")</f>
+        <v xml:space="preserve">possibilitar a adoração de santos católicos.
+</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -996,16 +1026,16 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1-C8HtaadAShQcjP0QHweCuz155BZBsqa")</f>
-        <v>https://drive.google.com/open?id=1-C8HtaadAShQcjP0QHweCuz155BZBsqa</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1ZR1rhznUwxAQclUYF6tqXvdKhGuWq9Ta")</f>
+        <v>https://drive.google.com/open?id=1ZR1rhznUwxAQclUYF6tqXvdKhGuWq9Ta</v>
       </c>
       <c r="B8" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
         <v>Enem</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018)</f>
-        <v>2018</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2016)</f>
+        <v>2016</v>
       </c>
       <c r="D8" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ciências Humanas")</f>
@@ -1019,53 +1049,60 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sociologia")</f>
         <v>Sociologia</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"História do Brasil")</f>
+        <v>História do Brasil</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Azul")</f>
         <v>Azul</v>
       </c>
       <c r="J8" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),81)</f>
-        <v>81</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44)</f>
+        <v>44</v>
       </c>
       <c r="K8" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"E")</f>
         <v>E</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"TEXTO I
-As fronteiras, ao mesmo tempo que se separam, unem e articulam, por elas passando discursos de legitimação da ordem social tanto quanto do conflito.CUNHA, L. Terras lusitanas e gentes dos brasis: a nação e o seu retrato literário. Revista Ciências"&amp;" Sociais, n. 2, 2009.
-TEXTO II
-As últimas barreiras ao livre movimento do dinheiro e das mercadorias e informação que rendem dinheiro andam de mãos dadas com a pressão para cavar novos fossos e erigir novas muralhas que barrem o movimento daqueles que em "&amp;"consequência perdem, física ou espiritualmente, suas raízes. BAUMAN, Z. Globalização: as consequências humanas. Rio de Janeiro: Jorge Zahar, 1999.
-A ressignificação contemporânea da ideia de fronteira compreende a
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[imagem em anexo]
+Na imagem, o autor procura representar as diferentes gerações de uma família associada a uma noção consagrada pelas elites intelectuais da época, que era a de 
 ")</f>
-        <v xml:space="preserve">TEXTO I
-As fronteiras, ao mesmo tempo que se separam, unem e articulam, por elas passando discursos de legitimação da ordem social tanto quanto do conflito.CUNHA, L. Terras lusitanas e gentes dos brasis: a nação e o seu retrato literário. Revista Ciências Sociais, n. 2, 2009.
-TEXTO II
-As últimas barreiras ao livre movimento do dinheiro e das mercadorias e informação que rendem dinheiro andam de mãos dadas com a pressão para cavar novos fossos e erigir novas muralhas que barrem o movimento daqueles que em consequência perdem, física ou espiritualmente, suas raízes. BAUMAN, Z. Globalização: as consequências humanas. Rio de Janeiro: Jorge Zahar, 1999.
-A ressignificação contemporânea da ideia de fronteira compreende a
+        <v xml:space="preserve">[imagem em anexo]
+Na imagem, o autor procura representar as diferentes gerações de uma família associada a uma noção consagrada pelas elites intelectuais da época, que era a de 
 </v>
       </c>
       <c r="M8" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"liberação da circulação de pessoas.")</f>
-        <v>liberação da circulação de pessoas.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"defesa da democracia racial. 
+")</f>
+        <v xml:space="preserve">defesa da democracia racial. 
+</v>
       </c>
       <c r="N8" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"preponderância dos limites naturais.")</f>
-        <v>preponderância dos limites naturais.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"idealização do universo rural. 
+")</f>
+        <v xml:space="preserve">idealização do universo rural. 
+</v>
       </c>
       <c r="O8" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"supressão dos obstáculos aduaneiros.")</f>
-        <v>supressão dos obstáculos aduaneiros.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"crise dos valores republicanos. 
+")</f>
+        <v xml:space="preserve">crise dos valores republicanos. 
+</v>
       </c>
       <c r="P8" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"desvalorização da noção de nacionalismo.")</f>
-        <v>desvalorização da noção de nacionalismo.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," constatação do atraso sertanejo. 
+")</f>
+        <v xml:space="preserve"> constatação do atraso sertanejo. 
+</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"seletividade dos mecanismos segregadores.")</f>
-        <v>seletividade dos mecanismos segregadores.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"embranquecimento da população.
+")</f>
+        <v xml:space="preserve">embranquecimento da população.
+</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1079,16 +1116,16 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1r_Hxkz7t81ZvNmGdYvsf6zas4nGYeUjx")</f>
-        <v>https://drive.google.com/open?id=1r_Hxkz7t81ZvNmGdYvsf6zas4nGYeUjx</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1L9d9arx-xDaz0JIx57HqiAt-I1okdIiI")</f>
+        <v>https://drive.google.com/open?id=1L9d9arx-xDaz0JIx57HqiAt-I1okdIiI</v>
       </c>
       <c r="B9" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
         <v>Enem</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018)</f>
-        <v>2018</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2016)</f>
+        <v>2016</v>
       </c>
       <c r="D9" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ciências Humanas")</f>
@@ -1109,42 +1146,44 @@
         <v>Azul</v>
       </c>
       <c r="J9" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87)</f>
-        <v>87</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),45)</f>
+        <v>45</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[Imagem contida no arquivo]
-Tônico para a saúde da mulher. Disponível em: www.propagandashistoricas.com.br. Acesso em: 28 nov. 2017.
-O anúncio publicitário da década de 1940 reforça os seguintes estereótipos atribuídos historicamente a uma suposta nature"&amp;"za feminina:
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"O mercado tende a gerir e regulamentar todas as atividades humanas. Até há pouco, certos campos — cultura, esporte, religião — ficavam fora do seu alcance. Agora, são absorvidos pela esfera do mercado. Os governos confiam cada vez mais nele (abandono dos "&amp;"setores de Estado, privatizações). ")</f>
+        <v xml:space="preserve">O mercado tende a gerir e regulamentar todas as atividades humanas. Até há pouco, certos campos — cultura, esporte, religião — ficavam fora do seu alcance. Agora, são absorvidos pela esfera do mercado. Os governos confiam cada vez mais nele (abandono dos setores de Estado, privatizações). </v>
+      </c>
+      <c r="M9" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Socialismo.")</f>
+        <v>Socialismo.</v>
+      </c>
+      <c r="N9" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Feudalismo. 
 ")</f>
-        <v xml:space="preserve">[Imagem contida no arquivo]
-Tônico para a saúde da mulher. Disponível em: www.propagandashistoricas.com.br. Acesso em: 28 nov. 2017.
-O anúncio publicitário da década de 1940 reforça os seguintes estereótipos atribuídos historicamente a uma suposta natureza feminina:
+        <v xml:space="preserve">Feudalismo. 
 </v>
       </c>
-      <c r="M9" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pudor inato e instinto maternal.")</f>
-        <v>Pudor inato e instinto maternal.</v>
-      </c>
-      <c r="N9" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fragilidade física e necessidade de aceitação. ")</f>
-        <v xml:space="preserve">Fragilidade física e necessidade de aceitação. </v>
-      </c>
       <c r="O9" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Isolamento social e procura de autoconhecimento.")</f>
-        <v xml:space="preserve"> Isolamento social e procura de autoconhecimento.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Capitalismo. 
+")</f>
+        <v xml:space="preserve">Capitalismo. 
+</v>
       </c>
       <c r="P9" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Dependência econômica e desejo de ostentação. ")</f>
-        <v xml:space="preserve">Dependência econômica e desejo de ostentação. </v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Anarquismo. 
+")</f>
+        <v xml:space="preserve">Anarquismo. 
+</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Mentalidade fútil e conduta hedonista.")</f>
-        <v>Mentalidade fútil e conduta hedonista.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Comunitarismo
+")</f>
+        <v xml:space="preserve">Comunitarismo
+</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1158,28 +1197,28 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1p96KNTNepar8SQY1dWS4CXXjqtorkjYp")</f>
-        <v>https://drive.google.com/open?id=1p96KNTNepar8SQY1dWS4CXXjqtorkjYp</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1hQ40B9afsrCQZFsdn4vY4zgGKPW6EOmY")</f>
+        <v>https://drive.google.com/open?id=1hQ40B9afsrCQZFsdn4vY4zgGKPW6EOmY</v>
       </c>
       <c r="B10" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
         <v>Enem</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2018)</f>
-        <v>2018</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2017)</f>
+        <v>2017</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ciências Humanas")</f>
-        <v>Ciências Humanas</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Linguagens")</f>
+        <v>Linguagens</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sociologia")</f>
-        <v>Sociologia</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
       </c>
       <c r="F10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sociologia")</f>
-        <v>Sociologia</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1187,41 +1226,36 @@
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Azul")</f>
         <v>Azul</v>
       </c>
-      <c r="J10" s="3">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89)</f>
-        <v>89</v>
-      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3" t="str">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D")</f>
         <v>D</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No início da década de 1990, dois biólogos importantes, Redford e Robinson, produziram um modelo largamente aceito de “produção sustentável” que previa quantos indivíduos de cada espécie poderiam ser caçados de forma sustentável baseado nas suas taxas de "&amp;"reprodução. Os seringueiros do Alto Juruá tinham um modelo diferente: a quem lhes afirmava que estavam caçando acima do sustentável (dentro do modelo), eles diziam que não, que o nível da caça dependia da existência de áreas de refúgio em que ninguém caça"&amp;"va. Ora, esse acabou sendo o modelo batizado de “fonte-ralo” proposto dez anos após o primeiro por Novaro, Bodmer e o próprio Redford e que suplantou o modelo anterior. CUNHA, M. C. Revista USP, n. 75, set.-nov. 2007.
-No contexto da produção científica, "&amp;"a necessidade de reconstrução desse modelo, conforme exposto no texto, foi determinada pelo confronto com um(a)
-")</f>
-        <v xml:space="preserve">No início da década de 1990, dois biólogos importantes, Redford e Robinson, produziram um modelo largamente aceito de “produção sustentável” que previa quantos indivíduos de cada espécie poderiam ser caçados de forma sustentável baseado nas suas taxas de reprodução. Os seringueiros do Alto Juruá tinham um modelo diferente: a quem lhes afirmava que estavam caçando acima do sustentável (dentro do modelo), eles diziam que não, que o nível da caça dependia da existência de áreas de refúgio em que ninguém caçava. Ora, esse acabou sendo o modelo batizado de “fonte-ralo” proposto dez anos após o primeiro por Novaro, Bodmer e o próprio Redford e que suplantou o modelo anterior. CUNHA, M. C. Revista USP, n. 75, set.-nov. 2007.
-No contexto da produção científica, a necessidade de reconstrução desse modelo, conforme exposto no texto, foi determinada pelo confronto com um(a)
-</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[trecho de conto contido no arquivo)
+No fragmento, o narrador adota um ponto de vista que acompanha a perspectiva de Fortunato. O que singulariza esse procedimento narrativo é o registro do(a)")</f>
+        <v>[trecho de conto contido no arquivo)
+No fragmento, o narrador adota um ponto de vista que acompanha a perspectiva de Fortunato. O que singulariza esse procedimento narrativo é o registro do(a)</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"conclusão operacional obtida por lógica dedutiva.")</f>
-        <v>conclusão operacional obtida por lógica dedutiva.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"indignação face à suspeita do adultério da esposa.")</f>
+        <v>indignação face à suspeita do adultério da esposa.</v>
       </c>
       <c r="N10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"visão de mundo marcada por preconceitos morais.")</f>
-        <v>visão de mundo marcada por preconceitos morais.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tristeza compartilhada pela perda da mulher amada.")</f>
+        <v>tristeza compartilhada pela perda da mulher amada.</v>
       </c>
       <c r="O10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hábito social condicionado pela religiosidade popular.")</f>
-        <v>hábito social condicionado pela religiosidade popular.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"espanto diante da demonstração de afeto de Garcia.")</f>
+        <v>espanto diante da demonstração de afeto de Garcia.</v>
       </c>
       <c r="P10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"conhecimento empírico apropriado pelo senso comum.")</f>
-        <v>conhecimento empírico apropriado pelo senso comum.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"prazer da personagem em relação ao sofrimento alheio.")</f>
+        <v>prazer da personagem em relação ao sofrimento alheio.</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"padrão de preservação construído por experimentação dirigida.")</f>
-        <v>padrão de preservação construído por experimentação dirigida.</v>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"superação do ciúme pela comoção decorrente da morte.")</f>
+        <v>superação do ciúme pela comoção decorrente da morte.</v>
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1234,23 +1268,70 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="4" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1FPM1V_XlBmHdPHFmJzjszrXiag7j86eh")</f>
+        <v>https://drive.google.com/open?id=1FPM1V_XlBmHdPHFmJzjszrXiag7j86eh</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
+        <v>Enem</v>
+      </c>
+      <c r="C11" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2017)</f>
+        <v>2017</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Linguagens")</f>
+        <v>Linguagens</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="I11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Azul")</f>
+        <v>Azul</v>
+      </c>
+      <c r="J11" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13)</f>
+        <v>13</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[poema contido no arquivo]
+A obra de Murilo Mendes situa-se na fase inicial do Modernismo, cujas propostas estéticas transparecem, no poema, por um eu lírico que")</f>
+        <v>[poema contido no arquivo]
+A obra de Murilo Mendes situa-se na fase inicial do Modernismo, cujas propostas estéticas transparecem, no poema, por um eu lírico que</v>
+      </c>
+      <c r="M11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"configura um ideal de nacionalidade pela integração regional.")</f>
+        <v>configura um ideal de nacionalidade pela integração regional.</v>
+      </c>
+      <c r="N11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"remonta ao colonialismo assente sob um viés iconoclasta.")</f>
+        <v>remonta ao colonialismo assente sob um viés iconoclasta.</v>
+      </c>
+      <c r="O11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"repercute as manifestações do sincretismo religioso.")</f>
+        <v>repercute as manifestações do sincretismo religioso.</v>
+      </c>
+      <c r="P11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"descreve a gênese da formação do povo brasileiro.")</f>
+        <v>descreve a gênese da formação do povo brasileiro.</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"promove inovações no repertório linguístico.")</f>
+        <v>promove inovações no repertório linguístico.</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1262,23 +1343,70 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="4" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1fD0GYjVJCKiLY2xqKdkiGaB0qE7zMerg")</f>
+        <v>https://drive.google.com/open?id=1fD0GYjVJCKiLY2xqKdkiGaB0qE7zMerg</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
+        <v>Enem</v>
+      </c>
+      <c r="C12" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2017)</f>
+        <v>2017</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Linguagens")</f>
+        <v>Linguagens</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="I12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Azul")</f>
+        <v>Azul</v>
+      </c>
+      <c r="J12" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18)</f>
+        <v>18</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[poema contido no arquivo]
+No processo de reconstituição do tempo vivido, o eu lírico projeta um conjunto de imagens cujo lirismo se fundamenta no")</f>
+        <v>[poema contido no arquivo]
+No processo de reconstituição do tempo vivido, o eu lírico projeta um conjunto de imagens cujo lirismo se fundamenta no</v>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"inventário das memórias evocadas afetivamente.")</f>
+        <v>inventário das memórias evocadas afetivamente.</v>
+      </c>
+      <c r="N12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"reflexo da saudade no desejo de voltar à infância.")</f>
+        <v>reflexo da saudade no desejo de voltar à infância.</v>
+      </c>
+      <c r="O12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," sentimento de inadequação com o presente vivido.")</f>
+        <v xml:space="preserve"> sentimento de inadequação com o presente vivido.</v>
+      </c>
+      <c r="P12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ressentimento com as perdas materiais e humanas.")</f>
+        <v>ressentimento com as perdas materiais e humanas.</v>
+      </c>
+      <c r="Q12" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lapso o fluxo temporal dos eventos trazidos à cena.")</f>
+        <v>lapso o fluxo temporal dos eventos trazidos à cena.</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1290,23 +1418,70 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="4" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1adcOIeS8WPunZcUsqvchJpcqj1qtOmqw")</f>
+        <v>https://drive.google.com/open?id=1adcOIeS8WPunZcUsqvchJpcqj1qtOmqw</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
+        <v>Enem</v>
+      </c>
+      <c r="C13" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2017)</f>
+        <v>2017</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Linguagens")</f>
+        <v>Linguagens</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="I13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Azul")</f>
+        <v>Azul</v>
+      </c>
+      <c r="J13" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24)</f>
+        <v>24</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D")</f>
+        <v>D</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[trecho de peça teatral contido no arquivo]
+A peça Liberdade, liberdade, encenada em 1964, apresenta o impasse vivido pela sociedade brasileira em face do regime vigente. Esse impasse é representado no fragmento pelo(a)")</f>
+        <v>[trecho de peça teatral contido no arquivo]
+A peça Liberdade, liberdade, encenada em 1964, apresenta o impasse vivido pela sociedade brasileira em face do regime vigente. Esse impasse é representado no fragmento pelo(a)</v>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"barulho excessivo produzido pelo ranger das cadeiras do teatro.")</f>
+        <v>barulho excessivo produzido pelo ranger das cadeiras do teatro.</v>
+      </c>
+      <c r="N13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"indicação da neutralidade como a melhor opção ideológica naquele momento.")</f>
+        <v>indicação da neutralidade como a melhor opção ideológica naquele momento.</v>
+      </c>
+      <c r="O13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"constatação da censura em função do engajamento social do texto dramático.")</f>
+        <v>constatação da censura em função do engajamento social do texto dramático.</v>
+      </c>
+      <c r="P13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"correlação entre o alinhamento político e a posição corporal dos espectadores.")</f>
+        <v>correlação entre o alinhamento político e a posição corporal dos espectadores.</v>
+      </c>
+      <c r="Q13" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"interrupção do espetáculo em virtude do comportamento inadequado do público.")</f>
+        <v>interrupção do espetáculo em virtude do comportamento inadequado do público.</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -1318,23 +1493,70 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="4" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://drive.google.com/open?id=1rUU8lBoVaTW6M1lo72OMt943he_AKbcy")</f>
+        <v>https://drive.google.com/open?id=1rUU8lBoVaTW6M1lo72OMt943he_AKbcy</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enem")</f>
+        <v>Enem</v>
+      </c>
+      <c r="C14" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2017)</f>
+        <v>2017</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Linguagens")</f>
+        <v>Linguagens</v>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Literatura")</f>
+        <v>Literatura</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="I14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Azul")</f>
+        <v>Azul</v>
+      </c>
+      <c r="J14" s="3">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30)</f>
+        <v>30</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"D")</f>
+        <v>D</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"[poema contido no arquivo]
+A busca pela identidade constitui uma faceta da tradição literária, redimensionada pelo olhar contemporâneo. No poema, essa nova dimensão revela a")</f>
+        <v>[poema contido no arquivo]
+A busca pela identidade constitui uma faceta da tradição literária, redimensionada pelo olhar contemporâneo. No poema, essa nova dimensão revela a</v>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ausência de traços identitários.")</f>
+        <v>ausência de traços identitários.</v>
+      </c>
+      <c r="N14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"angústia com a solidão em público.")</f>
+        <v>angústia com a solidão em público.</v>
+      </c>
+      <c r="O14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"valorização da descoberta do “eu” autêntico.")</f>
+        <v>valorização da descoberta do “eu” autêntico.</v>
+      </c>
+      <c r="P14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"percepção da empatia como fator de autoconhecimento.")</f>
+        <v>percepção da empatia como fator de autoconhecimento.</v>
+      </c>
+      <c r="Q14" s="3" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"impossibilidade de vivenciar experiências de pertencimento.")</f>
+        <v>impossibilidade de vivenciar experiências de pertencimento.</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -17081,408 +17303,20 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A577" s="3"/>
-      <c r="B577" s="3"/>
-      <c r="C577" s="3"/>
-      <c r="D577" s="3"/>
-      <c r="E577" s="3"/>
-      <c r="F577" s="3"/>
-      <c r="G577" s="3"/>
-      <c r="H577" s="3"/>
-      <c r="I577" s="3"/>
-      <c r="J577" s="3"/>
-      <c r="K577" s="3"/>
-      <c r="L577" s="3"/>
-      <c r="M577" s="3"/>
-      <c r="N577" s="3"/>
-      <c r="O577" s="3"/>
-      <c r="P577" s="3"/>
-      <c r="Q577" s="3"/>
-      <c r="R577" s="3"/>
-      <c r="S577" s="3"/>
-      <c r="T577" s="3"/>
-      <c r="U577" s="3"/>
-      <c r="V577" s="3"/>
-      <c r="W577" s="3"/>
-      <c r="X577" s="3"/>
-      <c r="Y577" s="3"/>
-      <c r="Z577" s="3"/>
-    </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A578" s="3"/>
-      <c r="B578" s="3"/>
-      <c r="C578" s="3"/>
-      <c r="D578" s="3"/>
-      <c r="E578" s="3"/>
-      <c r="F578" s="3"/>
-      <c r="G578" s="3"/>
-      <c r="H578" s="3"/>
-      <c r="I578" s="3"/>
-      <c r="J578" s="3"/>
-      <c r="K578" s="3"/>
-      <c r="L578" s="3"/>
-      <c r="M578" s="3"/>
-      <c r="N578" s="3"/>
-      <c r="O578" s="3"/>
-      <c r="P578" s="3"/>
-      <c r="Q578" s="3"/>
-      <c r="R578" s="3"/>
-      <c r="S578" s="3"/>
-      <c r="T578" s="3"/>
-      <c r="U578" s="3"/>
-      <c r="V578" s="3"/>
-      <c r="W578" s="3"/>
-      <c r="X578" s="3"/>
-      <c r="Y578" s="3"/>
-      <c r="Z578" s="3"/>
-    </row>
-    <row r="579" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A579" s="3"/>
-      <c r="B579" s="3"/>
-      <c r="C579" s="3"/>
-      <c r="D579" s="3"/>
-      <c r="E579" s="3"/>
-      <c r="F579" s="3"/>
-      <c r="G579" s="3"/>
-      <c r="H579" s="3"/>
-      <c r="I579" s="3"/>
-      <c r="J579" s="3"/>
-      <c r="K579" s="3"/>
-      <c r="L579" s="3"/>
-      <c r="M579" s="3"/>
-      <c r="N579" s="3"/>
-      <c r="O579" s="3"/>
-      <c r="P579" s="3"/>
-      <c r="Q579" s="3"/>
-      <c r="R579" s="3"/>
-      <c r="S579" s="3"/>
-      <c r="T579" s="3"/>
-      <c r="U579" s="3"/>
-      <c r="V579" s="3"/>
-      <c r="W579" s="3"/>
-      <c r="X579" s="3"/>
-      <c r="Y579" s="3"/>
-      <c r="Z579" s="3"/>
-    </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A580" s="3"/>
-      <c r="B580" s="3"/>
-      <c r="C580" s="3"/>
-      <c r="D580" s="3"/>
-      <c r="E580" s="3"/>
-      <c r="F580" s="3"/>
-      <c r="G580" s="3"/>
-      <c r="H580" s="3"/>
-      <c r="I580" s="3"/>
-      <c r="J580" s="3"/>
-      <c r="K580" s="3"/>
-      <c r="L580" s="3"/>
-      <c r="M580" s="3"/>
-      <c r="N580" s="3"/>
-      <c r="O580" s="3"/>
-      <c r="P580" s="3"/>
-      <c r="Q580" s="3"/>
-      <c r="R580" s="3"/>
-      <c r="S580" s="3"/>
-      <c r="T580" s="3"/>
-      <c r="U580" s="3"/>
-      <c r="V580" s="3"/>
-      <c r="W580" s="3"/>
-      <c r="X580" s="3"/>
-      <c r="Y580" s="3"/>
-      <c r="Z580" s="3"/>
-    </row>
-    <row r="581" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A581" s="3"/>
-      <c r="B581" s="3"/>
-      <c r="C581" s="3"/>
-      <c r="D581" s="3"/>
-      <c r="E581" s="3"/>
-      <c r="F581" s="3"/>
-      <c r="G581" s="3"/>
-      <c r="H581" s="3"/>
-      <c r="I581" s="3"/>
-      <c r="J581" s="3"/>
-      <c r="K581" s="3"/>
-      <c r="L581" s="3"/>
-      <c r="M581" s="3"/>
-      <c r="N581" s="3"/>
-      <c r="O581" s="3"/>
-      <c r="P581" s="3"/>
-      <c r="Q581" s="3"/>
-      <c r="R581" s="3"/>
-      <c r="S581" s="3"/>
-      <c r="T581" s="3"/>
-      <c r="U581" s="3"/>
-      <c r="V581" s="3"/>
-      <c r="W581" s="3"/>
-      <c r="X581" s="3"/>
-      <c r="Y581" s="3"/>
-      <c r="Z581" s="3"/>
-    </row>
-    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A582" s="3"/>
-      <c r="B582" s="3"/>
-      <c r="C582" s="3"/>
-      <c r="D582" s="3"/>
-      <c r="E582" s="3"/>
-      <c r="F582" s="3"/>
-      <c r="G582" s="3"/>
-      <c r="H582" s="3"/>
-      <c r="I582" s="3"/>
-      <c r="J582" s="3"/>
-      <c r="K582" s="3"/>
-      <c r="L582" s="3"/>
-      <c r="M582" s="3"/>
-      <c r="N582" s="3"/>
-      <c r="O582" s="3"/>
-      <c r="P582" s="3"/>
-      <c r="Q582" s="3"/>
-      <c r="R582" s="3"/>
-      <c r="S582" s="3"/>
-      <c r="T582" s="3"/>
-      <c r="U582" s="3"/>
-      <c r="V582" s="3"/>
-      <c r="W582" s="3"/>
-      <c r="X582" s="3"/>
-      <c r="Y582" s="3"/>
-      <c r="Z582" s="3"/>
-    </row>
-    <row r="583" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A583" s="3"/>
-      <c r="B583" s="3"/>
-      <c r="C583" s="3"/>
-      <c r="D583" s="3"/>
-      <c r="E583" s="3"/>
-      <c r="F583" s="3"/>
-      <c r="G583" s="3"/>
-      <c r="H583" s="3"/>
-      <c r="I583" s="3"/>
-      <c r="J583" s="3"/>
-      <c r="K583" s="3"/>
-      <c r="L583" s="3"/>
-      <c r="M583" s="3"/>
-      <c r="N583" s="3"/>
-      <c r="O583" s="3"/>
-      <c r="P583" s="3"/>
-      <c r="Q583" s="3"/>
-      <c r="R583" s="3"/>
-      <c r="S583" s="3"/>
-      <c r="T583" s="3"/>
-      <c r="U583" s="3"/>
-      <c r="V583" s="3"/>
-      <c r="W583" s="3"/>
-      <c r="X583" s="3"/>
-      <c r="Y583" s="3"/>
-      <c r="Z583" s="3"/>
-    </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A584" s="3"/>
-      <c r="B584" s="3"/>
-      <c r="C584" s="3"/>
-      <c r="D584" s="3"/>
-      <c r="E584" s="3"/>
-      <c r="F584" s="3"/>
-      <c r="G584" s="3"/>
-      <c r="H584" s="3"/>
-      <c r="I584" s="3"/>
-      <c r="J584" s="3"/>
-      <c r="K584" s="3"/>
-      <c r="L584" s="3"/>
-      <c r="M584" s="3"/>
-      <c r="N584" s="3"/>
-      <c r="O584" s="3"/>
-      <c r="P584" s="3"/>
-      <c r="Q584" s="3"/>
-      <c r="R584" s="3"/>
-      <c r="S584" s="3"/>
-      <c r="T584" s="3"/>
-      <c r="U584" s="3"/>
-      <c r="V584" s="3"/>
-      <c r="W584" s="3"/>
-      <c r="X584" s="3"/>
-      <c r="Y584" s="3"/>
-      <c r="Z584" s="3"/>
-    </row>
-    <row r="585" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A585" s="3"/>
-      <c r="B585" s="3"/>
-      <c r="C585" s="3"/>
-      <c r="D585" s="3"/>
-      <c r="E585" s="3"/>
-      <c r="F585" s="3"/>
-      <c r="G585" s="3"/>
-      <c r="H585" s="3"/>
-      <c r="I585" s="3"/>
-      <c r="J585" s="3"/>
-      <c r="K585" s="3"/>
-      <c r="L585" s="3"/>
-      <c r="M585" s="3"/>
-      <c r="N585" s="3"/>
-      <c r="O585" s="3"/>
-      <c r="P585" s="3"/>
-      <c r="Q585" s="3"/>
-      <c r="R585" s="3"/>
-      <c r="S585" s="3"/>
-      <c r="T585" s="3"/>
-      <c r="U585" s="3"/>
-      <c r="V585" s="3"/>
-      <c r="W585" s="3"/>
-      <c r="X585" s="3"/>
-      <c r="Y585" s="3"/>
-      <c r="Z585" s="3"/>
-    </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A586" s="3"/>
-      <c r="B586" s="3"/>
-      <c r="C586" s="3"/>
-      <c r="D586" s="3"/>
-      <c r="E586" s="3"/>
-      <c r="F586" s="3"/>
-      <c r="G586" s="3"/>
-      <c r="H586" s="3"/>
-      <c r="I586" s="3"/>
-      <c r="J586" s="3"/>
-      <c r="K586" s="3"/>
-      <c r="L586" s="3"/>
-      <c r="M586" s="3"/>
-      <c r="N586" s="3"/>
-      <c r="O586" s="3"/>
-      <c r="P586" s="3"/>
-      <c r="Q586" s="3"/>
-      <c r="R586" s="3"/>
-      <c r="S586" s="3"/>
-      <c r="T586" s="3"/>
-      <c r="U586" s="3"/>
-      <c r="V586" s="3"/>
-      <c r="W586" s="3"/>
-      <c r="X586" s="3"/>
-      <c r="Y586" s="3"/>
-      <c r="Z586" s="3"/>
-    </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A587" s="3"/>
-      <c r="B587" s="3"/>
-      <c r="C587" s="3"/>
-      <c r="D587" s="3"/>
-      <c r="E587" s="3"/>
-      <c r="F587" s="3"/>
-      <c r="G587" s="3"/>
-      <c r="H587" s="3"/>
-      <c r="I587" s="3"/>
-      <c r="J587" s="3"/>
-      <c r="K587" s="3"/>
-      <c r="L587" s="3"/>
-      <c r="M587" s="3"/>
-      <c r="N587" s="3"/>
-      <c r="O587" s="3"/>
-      <c r="P587" s="3"/>
-      <c r="Q587" s="3"/>
-      <c r="R587" s="3"/>
-      <c r="S587" s="3"/>
-      <c r="T587" s="3"/>
-      <c r="U587" s="3"/>
-      <c r="V587" s="3"/>
-      <c r="W587" s="3"/>
-      <c r="X587" s="3"/>
-      <c r="Y587" s="3"/>
-      <c r="Z587" s="3"/>
-    </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A588" s="3"/>
-      <c r="B588" s="3"/>
-      <c r="C588" s="3"/>
-      <c r="D588" s="3"/>
-      <c r="E588" s="3"/>
-      <c r="F588" s="3"/>
-      <c r="G588" s="3"/>
-      <c r="H588" s="3"/>
-      <c r="I588" s="3"/>
-      <c r="J588" s="3"/>
-      <c r="K588" s="3"/>
-      <c r="L588" s="3"/>
-      <c r="M588" s="3"/>
-      <c r="N588" s="3"/>
-      <c r="O588" s="3"/>
-      <c r="P588" s="3"/>
-      <c r="Q588" s="3"/>
-      <c r="R588" s="3"/>
-      <c r="S588" s="3"/>
-      <c r="T588" s="3"/>
-      <c r="U588" s="3"/>
-      <c r="V588" s="3"/>
-      <c r="W588" s="3"/>
-      <c r="X588" s="3"/>
-      <c r="Y588" s="3"/>
-      <c r="Z588" s="3"/>
-    </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A589" s="3"/>
-      <c r="B589" s="3"/>
-      <c r="C589" s="3"/>
-      <c r="D589" s="3"/>
-      <c r="E589" s="3"/>
-      <c r="F589" s="3"/>
-      <c r="G589" s="3"/>
-      <c r="H589" s="3"/>
-      <c r="I589" s="3"/>
-      <c r="J589" s="3"/>
-      <c r="K589" s="3"/>
-      <c r="L589" s="3"/>
-      <c r="M589" s="3"/>
-      <c r="N589" s="3"/>
-      <c r="O589" s="3"/>
-      <c r="P589" s="3"/>
-      <c r="Q589" s="3"/>
-      <c r="R589" s="3"/>
-      <c r="S589" s="3"/>
-      <c r="T589" s="3"/>
-      <c r="U589" s="3"/>
-      <c r="V589" s="3"/>
-      <c r="W589" s="3"/>
-      <c r="X589" s="3"/>
-      <c r="Y589" s="3"/>
-      <c r="Z589" s="3"/>
-    </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A590" s="3"/>
-      <c r="B590" s="3"/>
-      <c r="C590" s="3"/>
-      <c r="D590" s="3"/>
-      <c r="E590" s="3"/>
-      <c r="F590" s="3"/>
-      <c r="G590" s="3"/>
-      <c r="H590" s="3"/>
-      <c r="I590" s="3"/>
-      <c r="J590" s="3"/>
-      <c r="K590" s="3"/>
-      <c r="L590" s="3"/>
-      <c r="M590" s="3"/>
-      <c r="N590" s="3"/>
-      <c r="O590" s="3"/>
-      <c r="P590" s="3"/>
-      <c r="Q590" s="3"/>
-      <c r="R590" s="3"/>
-      <c r="S590" s="3"/>
-      <c r="T590" s="3"/>
-      <c r="U590" s="3"/>
-      <c r="V590" s="3"/>
-      <c r="W590" s="3"/>
-      <c r="X590" s="3"/>
-      <c r="Y590" s="3"/>
-      <c r="Z590" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://drive.google.com/open?id=1NL94g-7XybFSKTZgLX8eoEOTR7FKCSXQ" xr:uid="{48EFC38F-862F-4AF4-A78A-491FB96FD4AE}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://drive.google.com/open?id=1W94bxs_7Z2-9dY7FBHCUS86gYt4Ot4GN" xr:uid="{5F7EE744-6751-45ED-94B8-55DC44F55648}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://drive.google.com/open?id=1yC594PHRYdASnExHXFvIV00MkjuuQbOk" xr:uid="{48CF5F1C-AA11-4FDB-87BF-5B73A5FE8D7D}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://drive.google.com/open?id=1_OChKYB3zALFaKVcWoIrvrI-vTqRqpXn" xr:uid="{9F030997-E2C0-447C-9BFB-584AF863D508}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://drive.google.com/open?id=1uzDafALIDiDvi4mGpEydY-hD1lvCAHFf" xr:uid="{9B94DF99-1911-4175-B568-52F246FC9F4F}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://drive.google.com/open?id=1-C8HtaadAShQcjP0QHweCuz155BZBsqa" xr:uid="{0F139B2D-463B-4BA4-AC89-AF01EE4880AC}"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://drive.google.com/open?id=1r_Hxkz7t81ZvNmGdYvsf6zas4nGYeUjx" xr:uid="{6AF2FD84-11D6-4D1D-B4E2-E8C817AF22D1}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://drive.google.com/open?id=1p96KNTNepar8SQY1dWS4CXXjqtorkjYp" xr:uid="{B9F8A1AE-AD2D-4E1A-99C1-553349EBD1F5}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://drive.google.com/open?id=1uu785Ijmm5i5hF1K63duqKTKxGcynaNl" xr:uid="{A93662BD-D982-45D1-B44D-9511D546F6C3}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://drive.google.com/open?id=1yRDd5R0-wP2OWRxoEcHykhLFLcFyaVgk" xr:uid="{91CE5F29-25C4-47DD-852C-EA8092D90413}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://drive.google.com/open?id=15E22_LrVcx56GbhEOBU46KAi6mfeBWTy" xr:uid="{A17D20C6-D7E3-446F-AFCA-DAF76F180A71}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://drive.google.com/open?id=1UuFIWlbjDb-HalIeajSh0TStzEH7Khtr" xr:uid="{C56FC019-1E44-43A2-BD1E-4081043B78AE}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://drive.google.com/open?id=1ZR1rhznUwxAQclUYF6tqXvdKhGuWq9Ta" xr:uid="{EDE0E118-62C2-44B3-A58A-09A614FC64ED}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://drive.google.com/open?id=1L9d9arx-xDaz0JIx57HqiAt-I1okdIiI" xr:uid="{C98AD9AE-023F-498B-A856-D94524EA94F1}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://drive.google.com/open?id=1hQ40B9afsrCQZFsdn4vY4zgGKPW6EOmY" xr:uid="{266902D4-164D-4430-8371-BEAAD902218A}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://drive.google.com/open?id=1FPM1V_XlBmHdPHFmJzjszrXiag7j86eh" xr:uid="{ABB01EF7-B473-4B87-9BDE-E27A163066A6}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://drive.google.com/open?id=1fD0GYjVJCKiLY2xqKdkiGaB0qE7zMerg" xr:uid="{363F5FE5-7EC5-437D-B4D7-A87A21A56B9B}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://drive.google.com/open?id=1adcOIeS8WPunZcUsqvchJpcqj1qtOmqw" xr:uid="{30F014FD-7BB3-4EDB-86C2-922C02775C2B}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://drive.google.com/open?id=1rUU8lBoVaTW6M1lo72OMt943he_AKbcy" xr:uid="{6B656B3D-06F2-4900-9CBF-1ED84FACE840}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
